--- a/Data/Locator-Output.xlsx
+++ b/Data/Locator-Output.xlsx
@@ -17,6 +17,11 @@
     <x:sheet name="Australia" sheetId="5" r:id="rId5"/>
     <x:sheet name="China" sheetId="6" r:id="rId6"/>
     <x:sheet name="India" sheetId="7" r:id="rId7"/>
+    <x:sheet name="South Africa" sheetId="8" r:id="rId8"/>
+    <x:sheet name="Spain" sheetId="10" r:id="rId10"/>
+    <x:sheet name="SriLanka" sheetId="11" r:id="rId11"/>
+    <x:sheet name="Swizerland" sheetId="12" r:id="rId12"/>
+    <x:sheet name="United Kingdom" sheetId="13" r:id="rId13"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -2070,4 +2075,1856 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B44"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B45"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B45"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B45"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B40"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>